--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Wnt11-Fzd8.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Wnt11-Fzd8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Fzd8</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>4.990556000000001</v>
+        <v>0.09047666666666666</v>
       </c>
       <c r="H2">
-        <v>14.971668</v>
+        <v>0.27143</v>
       </c>
       <c r="I2">
-        <v>0.7147067639482496</v>
+        <v>0.01063327555148536</v>
       </c>
       <c r="J2">
-        <v>0.7147067639482497</v>
+        <v>0.01063327555148536</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.416422666666667</v>
+        <v>2.157506</v>
       </c>
       <c r="N2">
-        <v>7.249268</v>
+        <v>6.472517999999999</v>
       </c>
       <c r="O2">
-        <v>0.2729115228630338</v>
+        <v>0.3549648016839517</v>
       </c>
       <c r="P2">
-        <v>0.2729115228630338</v>
+        <v>0.3549648016839516</v>
       </c>
       <c r="Q2">
-        <v>12.05929263766934</v>
+        <v>0.1952039511933333</v>
       </c>
       <c r="R2">
-        <v>108.533633739024</v>
+        <v>1.75683556074</v>
       </c>
       <c r="S2">
-        <v>0.1950517113496276</v>
+        <v>0.003774438547383812</v>
       </c>
       <c r="T2">
-        <v>0.1950517113496277</v>
+        <v>0.003774438547383812</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>4.990556000000001</v>
+        <v>0.09047666666666666</v>
       </c>
       <c r="H3">
-        <v>14.971668</v>
+        <v>0.27143</v>
       </c>
       <c r="I3">
-        <v>0.7147067639482496</v>
+        <v>0.01063327555148536</v>
       </c>
       <c r="J3">
-        <v>0.7147067639482497</v>
+        <v>0.01063327555148536</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>8.740964</v>
       </c>
       <c r="O3">
-        <v>0.3290690586319825</v>
+        <v>0.4793705560628122</v>
       </c>
       <c r="P3">
-        <v>0.3290690586319827</v>
+        <v>0.4793705560628121</v>
       </c>
       <c r="Q3">
-        <v>14.54075677866133</v>
+        <v>0.2636177620577778</v>
       </c>
       <c r="R3">
-        <v>130.866811007952</v>
+        <v>2.37255985852</v>
       </c>
       <c r="S3">
-        <v>0.2351878820103611</v>
+        <v>0.005097279213884641</v>
       </c>
       <c r="T3">
-        <v>0.2351878820103612</v>
+        <v>0.005097279213884642</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>4.990556000000001</v>
+        <v>0.09047666666666666</v>
       </c>
       <c r="H4">
-        <v>14.971668</v>
+        <v>0.27143</v>
       </c>
       <c r="I4">
-        <v>0.7147067639482496</v>
+        <v>0.01063327555148536</v>
       </c>
       <c r="J4">
-        <v>0.7147067639482497</v>
+        <v>0.01063327555148536</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -685,28 +685,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.02921733333333333</v>
+        <v>0.018986</v>
       </c>
       <c r="N4">
-        <v>0.08765200000000001</v>
+        <v>0.05695799999999999</v>
       </c>
       <c r="O4">
-        <v>0.003299814657423431</v>
+        <v>0.003123681567871193</v>
       </c>
       <c r="P4">
-        <v>0.003299814657423431</v>
+        <v>0.003123681567871192</v>
       </c>
       <c r="Q4">
-        <v>0.1458107381706667</v>
+        <v>0.001717789993333333</v>
       </c>
       <c r="R4">
-        <v>1.312296643536</v>
+        <v>0.01546010994</v>
       </c>
       <c r="S4">
-        <v>0.002358399855436102</v>
+        <v>3.32149668462702E-05</v>
       </c>
       <c r="T4">
-        <v>0.002358399855436103</v>
+        <v>3.321496684627021E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>4.990556000000001</v>
+        <v>0.09047666666666666</v>
       </c>
       <c r="H5">
-        <v>14.971668</v>
+        <v>0.27143</v>
       </c>
       <c r="I5">
-        <v>0.7147067639482496</v>
+        <v>0.01063327555148536</v>
       </c>
       <c r="J5">
-        <v>0.7147067639482497</v>
+        <v>0.01063327555148536</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.466422333333333</v>
+        <v>0.9848966666666668</v>
       </c>
       <c r="N5">
-        <v>10.399267</v>
+        <v>2.95469</v>
       </c>
       <c r="O5">
-        <v>0.3914988097597292</v>
+        <v>0.1620406385718132</v>
       </c>
       <c r="P5">
-        <v>0.3914988097597293</v>
+        <v>0.1620406385718132</v>
       </c>
       <c r="Q5">
-        <v>17.29937477415067</v>
+        <v>0.08911016741111112</v>
       </c>
       <c r="R5">
-        <v>155.694372967356</v>
+        <v>0.8019915067000001</v>
       </c>
       <c r="S5">
-        <v>0.2798068474129675</v>
+        <v>0.001723022760472737</v>
       </c>
       <c r="T5">
-        <v>0.2798068474129676</v>
+        <v>0.001723022760472737</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>25</v>
       </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>4.990556000000001</v>
+        <v>0.09047666666666666</v>
       </c>
       <c r="H6">
-        <v>14.971668</v>
+        <v>0.27143</v>
       </c>
       <c r="I6">
-        <v>0.7147067639482496</v>
+        <v>0.01063327555148536</v>
       </c>
       <c r="J6">
-        <v>0.7147067639482497</v>
+        <v>0.01063327555148536</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -809,28 +809,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.02851766666666667</v>
+        <v>0.003041</v>
       </c>
       <c r="N6">
-        <v>0.085553</v>
+        <v>0.009122999999999999</v>
       </c>
       <c r="O6">
-        <v>0.003220794087830817</v>
+        <v>0.0005003221135518961</v>
       </c>
       <c r="P6">
-        <v>0.003220794087830817</v>
+        <v>0.000500322113551896</v>
       </c>
       <c r="Q6">
-        <v>0.1423190124893333</v>
+        <v>0.0002751395433333333</v>
       </c>
       <c r="R6">
-        <v>1.280871112404</v>
+        <v>0.00247625589</v>
       </c>
       <c r="S6">
-        <v>0.002301923319857218</v>
+        <v>5.320062897898857E-06</v>
       </c>
       <c r="T6">
-        <v>0.002301923319857218</v>
+        <v>5.320062897898857E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.7406196666666666</v>
+        <v>4.990556000000001</v>
       </c>
       <c r="H7">
-        <v>2.221859</v>
+        <v>14.971668</v>
       </c>
       <c r="I7">
-        <v>0.1060655135980369</v>
+        <v>0.5865153863219087</v>
       </c>
       <c r="J7">
-        <v>0.1060655135980369</v>
+        <v>0.5865153863219088</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.416422666666667</v>
+        <v>2.157506</v>
       </c>
       <c r="N7">
-        <v>7.249268</v>
+        <v>6.472517999999999</v>
       </c>
       <c r="O7">
-        <v>0.2729115228630338</v>
+        <v>0.3549648016839517</v>
       </c>
       <c r="P7">
-        <v>0.2729115228630338</v>
+        <v>0.3549648016839516</v>
       </c>
       <c r="Q7">
-        <v>1.789650149912444</v>
+        <v>10.767154513336</v>
       </c>
       <c r="R7">
-        <v>16.106851349212</v>
+        <v>96.90439062002399</v>
       </c>
       <c r="S7">
-        <v>0.02894650083929006</v>
+        <v>0.2081923177903426</v>
       </c>
       <c r="T7">
-        <v>0.02894650083929007</v>
+        <v>0.2081923177903426</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,31 +900,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.7406196666666666</v>
+        <v>4.990556000000001</v>
       </c>
       <c r="H8">
-        <v>2.221859</v>
+        <v>14.971668</v>
       </c>
       <c r="I8">
-        <v>0.1060655135980369</v>
+        <v>0.5865153863219087</v>
       </c>
       <c r="J8">
-        <v>0.1060655135980369</v>
+        <v>0.5865153863219088</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -939,22 +939,22 @@
         <v>8.740964</v>
       </c>
       <c r="O8">
-        <v>0.3290690586319825</v>
+        <v>0.4793705560628122</v>
       </c>
       <c r="P8">
-        <v>0.3290690586319827</v>
+        <v>0.4793705560628121</v>
       </c>
       <c r="Q8">
-        <v>2.157909948008444</v>
+        <v>14.54075677866133</v>
       </c>
       <c r="R8">
-        <v>19.421189532076</v>
+        <v>130.866811007952</v>
       </c>
       <c r="S8">
-        <v>0.03490287871302374</v>
+        <v>0.2811582068805285</v>
       </c>
       <c r="T8">
-        <v>0.03490287871302376</v>
+        <v>0.2811582068805285</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,31 +962,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.7406196666666666</v>
+        <v>4.990556000000001</v>
       </c>
       <c r="H9">
-        <v>2.221859</v>
+        <v>14.971668</v>
       </c>
       <c r="I9">
-        <v>0.1060655135980369</v>
+        <v>0.5865153863219087</v>
       </c>
       <c r="J9">
-        <v>0.1060655135980369</v>
+        <v>0.5865153863219088</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -995,28 +995,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.02921733333333333</v>
+        <v>0.018986</v>
       </c>
       <c r="N9">
-        <v>0.08765200000000001</v>
+        <v>0.05695799999999999</v>
       </c>
       <c r="O9">
-        <v>0.003299814657423431</v>
+        <v>0.003123681567871193</v>
       </c>
       <c r="P9">
-        <v>0.003299814657423431</v>
+        <v>0.003123681567871192</v>
       </c>
       <c r="Q9">
-        <v>0.02163893167422222</v>
+        <v>0.094750696216</v>
       </c>
       <c r="R9">
-        <v>0.194750385068</v>
+        <v>0.852756265944</v>
       </c>
       <c r="S9">
-        <v>0.0003499965364179462</v>
+        <v>0.001832087301526598</v>
       </c>
       <c r="T9">
-        <v>0.0003499965364179464</v>
+        <v>0.001832087301526598</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,31 +1024,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.7406196666666666</v>
+        <v>4.990556000000001</v>
       </c>
       <c r="H10">
-        <v>2.221859</v>
+        <v>14.971668</v>
       </c>
       <c r="I10">
-        <v>0.1060655135980369</v>
+        <v>0.5865153863219087</v>
       </c>
       <c r="J10">
-        <v>0.1060655135980369</v>
+        <v>0.5865153863219088</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.466422333333333</v>
+        <v>0.9848966666666668</v>
       </c>
       <c r="N10">
-        <v>10.399267</v>
+        <v>2.95469</v>
       </c>
       <c r="O10">
-        <v>0.3914988097597292</v>
+        <v>0.1620406385718132</v>
       </c>
       <c r="P10">
-        <v>0.3914988097597293</v>
+        <v>0.1620406385718132</v>
       </c>
       <c r="Q10">
-        <v>2.567300553039222</v>
+        <v>4.915181969213334</v>
       </c>
       <c r="R10">
-        <v>23.105704977353</v>
+        <v>44.23663772292001</v>
       </c>
       <c r="S10">
-        <v>0.04152452233018581</v>
+        <v>0.09503932773179581</v>
       </c>
       <c r="T10">
-        <v>0.04152452233018582</v>
+        <v>0.09503932773179581</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,31 +1086,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>25</v>
       </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.7406196666666666</v>
+        <v>4.990556000000001</v>
       </c>
       <c r="H11">
-        <v>2.221859</v>
+        <v>14.971668</v>
       </c>
       <c r="I11">
-        <v>0.1060655135980369</v>
+        <v>0.5865153863219087</v>
       </c>
       <c r="J11">
-        <v>0.1060655135980369</v>
+        <v>0.5865153863219088</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,28 +1119,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.02851766666666667</v>
+        <v>0.003041</v>
       </c>
       <c r="N11">
-        <v>0.085553</v>
+        <v>0.009122999999999999</v>
       </c>
       <c r="O11">
-        <v>0.003220794087830817</v>
+        <v>0.0005003221135518961</v>
       </c>
       <c r="P11">
-        <v>0.003220794087830817</v>
+        <v>0.000500322113551896</v>
       </c>
       <c r="Q11">
-        <v>0.02112074478077778</v>
+        <v>0.015176280796</v>
       </c>
       <c r="R11">
-        <v>0.190086703027</v>
+        <v>0.136586527164</v>
       </c>
       <c r="S11">
-        <v>0.0003416151791192962</v>
+        <v>0.0002934466177152842</v>
       </c>
       <c r="T11">
-        <v>0.0003416151791192964</v>
+        <v>0.0002934466177152842</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.4585106666666667</v>
+        <v>2.166324666666667</v>
       </c>
       <c r="H12">
-        <v>1.375532</v>
+        <v>6.498974</v>
       </c>
       <c r="I12">
-        <v>0.06566416142992641</v>
+        <v>0.2545974333859153</v>
       </c>
       <c r="J12">
-        <v>0.06566416142992643</v>
+        <v>0.2545974333859154</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.416422666666667</v>
+        <v>2.157506</v>
       </c>
       <c r="N12">
-        <v>7.249268</v>
+        <v>6.472517999999999</v>
       </c>
       <c r="O12">
-        <v>0.2729115228630338</v>
+        <v>0.3549648016839517</v>
       </c>
       <c r="P12">
-        <v>0.2729115228630338</v>
+        <v>0.3549648016839516</v>
       </c>
       <c r="Q12">
-        <v>1.107955567841778</v>
+        <v>4.673858466281333</v>
       </c>
       <c r="R12">
-        <v>9.971600110576</v>
+        <v>42.064726196532</v>
       </c>
       <c r="S12">
-        <v>0.0179205062933653</v>
+        <v>0.09037312745107451</v>
       </c>
       <c r="T12">
-        <v>0.01792050629336531</v>
+        <v>0.09037312745107454</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.4585106666666667</v>
+        <v>2.166324666666667</v>
       </c>
       <c r="H13">
-        <v>1.375532</v>
+        <v>6.498974</v>
       </c>
       <c r="I13">
-        <v>0.06566416142992641</v>
+        <v>0.2545974333859153</v>
       </c>
       <c r="J13">
-        <v>0.06566416142992643</v>
+        <v>0.2545974333859154</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1249,22 +1249,22 @@
         <v>8.740964</v>
       </c>
       <c r="O13">
-        <v>0.3290690586319825</v>
+        <v>0.4793705560628122</v>
       </c>
       <c r="P13">
-        <v>0.3290690586319827</v>
+        <v>0.4793705560628121</v>
       </c>
       <c r="Q13">
-        <v>1.335941743649778</v>
+        <v>6.311921974548445</v>
       </c>
       <c r="R13">
-        <v>12.023475692848</v>
+        <v>56.807297770936</v>
       </c>
       <c r="S13">
-        <v>0.02160804378760442</v>
+        <v>0.122046513214371</v>
       </c>
       <c r="T13">
-        <v>0.02160804378760443</v>
+        <v>0.122046513214371</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,13 +1272,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.4585106666666667</v>
+        <v>2.166324666666667</v>
       </c>
       <c r="H14">
-        <v>1.375532</v>
+        <v>6.498974</v>
       </c>
       <c r="I14">
-        <v>0.06566416142992641</v>
+        <v>0.2545974333859153</v>
       </c>
       <c r="J14">
-        <v>0.06566416142992643</v>
+        <v>0.2545974333859154</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.02921733333333333</v>
+        <v>0.018986</v>
       </c>
       <c r="N14">
-        <v>0.08765200000000001</v>
+        <v>0.05695799999999999</v>
       </c>
       <c r="O14">
-        <v>0.003299814657423431</v>
+        <v>0.003123681567871193</v>
       </c>
       <c r="P14">
-        <v>0.003299814657423431</v>
+        <v>0.003123681567871192</v>
       </c>
       <c r="Q14">
-        <v>0.01339645898488889</v>
+        <v>0.04112984012133333</v>
       </c>
       <c r="R14">
-        <v>0.120568130864</v>
+        <v>0.370168561092</v>
       </c>
       <c r="S14">
-        <v>0.0002166795623538895</v>
+        <v>0.0007952813098948975</v>
       </c>
       <c r="T14">
-        <v>0.0002166795623538896</v>
+        <v>0.0007952813098948977</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,13 +1334,13 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.4585106666666667</v>
+        <v>2.166324666666667</v>
       </c>
       <c r="H15">
-        <v>1.375532</v>
+        <v>6.498974</v>
       </c>
       <c r="I15">
-        <v>0.06566416142992641</v>
+        <v>0.2545974333859153</v>
       </c>
       <c r="J15">
-        <v>0.06566416142992643</v>
+        <v>0.2545974333859154</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.466422333333333</v>
+        <v>0.9848966666666668</v>
       </c>
       <c r="N15">
-        <v>10.399267</v>
+        <v>2.95469</v>
       </c>
       <c r="O15">
-        <v>0.3914988097597292</v>
+        <v>0.1620406385718132</v>
       </c>
       <c r="P15">
-        <v>0.3914988097597293</v>
+        <v>0.1620406385718132</v>
       </c>
       <c r="Q15">
-        <v>1.589391615004889</v>
+        <v>2.133605943117778</v>
       </c>
       <c r="R15">
-        <v>14.304524535044</v>
+        <v>19.20245348806</v>
       </c>
       <c r="S15">
-        <v>0.02570744104368691</v>
+        <v>0.04125513068459839</v>
       </c>
       <c r="T15">
-        <v>0.02570744104368692</v>
+        <v>0.0412551306845984</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,14 +1396,14 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
         <v>3</v>
       </c>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.4585106666666667</v>
+        <v>2.166324666666667</v>
       </c>
       <c r="H16">
-        <v>1.375532</v>
+        <v>6.498974</v>
       </c>
       <c r="I16">
-        <v>0.06566416142992641</v>
+        <v>0.2545974333859153</v>
       </c>
       <c r="J16">
-        <v>0.06566416142992643</v>
+        <v>0.2545974333859154</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1429,28 +1429,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.02851766666666667</v>
+        <v>0.003041</v>
       </c>
       <c r="N16">
-        <v>0.085553</v>
+        <v>0.009122999999999999</v>
       </c>
       <c r="O16">
-        <v>0.003220794087830817</v>
+        <v>0.0005003221135518961</v>
       </c>
       <c r="P16">
-        <v>0.003220794087830817</v>
+        <v>0.000500322113551896</v>
       </c>
       <c r="Q16">
-        <v>0.01307565435511111</v>
+        <v>0.006587793311333333</v>
       </c>
       <c r="R16">
-        <v>0.117680889196</v>
+        <v>0.059290139802</v>
       </c>
       <c r="S16">
-        <v>0.0002114907429158754</v>
+        <v>0.0001273807259765292</v>
       </c>
       <c r="T16">
-        <v>0.0002114907429158754</v>
+        <v>0.0001273807259765292</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,13 +1458,13 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.3682003333333333</v>
+        <v>0.318005</v>
       </c>
       <c r="H17">
-        <v>1.104601</v>
+        <v>0.9540150000000001</v>
       </c>
       <c r="I17">
-        <v>0.05273065139862841</v>
+        <v>0.03737355625852081</v>
       </c>
       <c r="J17">
-        <v>0.05273065139862843</v>
+        <v>0.03737355625852082</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.416422666666667</v>
+        <v>2.157506</v>
       </c>
       <c r="N17">
-        <v>7.249268</v>
+        <v>6.472517999999999</v>
       </c>
       <c r="O17">
-        <v>0.2729115228630338</v>
+        <v>0.3549648016839517</v>
       </c>
       <c r="P17">
-        <v>0.2729115228630338</v>
+        <v>0.3549648016839516</v>
       </c>
       <c r="Q17">
-        <v>0.8897276313408887</v>
+        <v>0.68609769553</v>
       </c>
       <c r="R17">
-        <v>8.007548682068</v>
+        <v>6.17487925977</v>
       </c>
       <c r="S17">
-        <v>0.01439080237475944</v>
+        <v>0.01326629698552985</v>
       </c>
       <c r="T17">
-        <v>0.01439080237475945</v>
+        <v>0.01326629698552985</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,13 +1520,13 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.3682003333333333</v>
+        <v>0.318005</v>
       </c>
       <c r="H18">
-        <v>1.104601</v>
+        <v>0.9540150000000001</v>
       </c>
       <c r="I18">
-        <v>0.05273065139862841</v>
+        <v>0.03737355625852081</v>
       </c>
       <c r="J18">
-        <v>0.05273065139862843</v>
+        <v>0.03737355625852082</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1559,22 +1559,22 @@
         <v>8.740964</v>
       </c>
       <c r="O18">
-        <v>0.3290690586319825</v>
+        <v>0.4793705560628122</v>
       </c>
       <c r="P18">
-        <v>0.3290690586319827</v>
+        <v>0.4793705560628121</v>
       </c>
       <c r="Q18">
-        <v>1.072808619484889</v>
+        <v>0.9265567522733333</v>
       </c>
       <c r="R18">
-        <v>9.655277575364</v>
+        <v>8.33901077046</v>
       </c>
       <c r="S18">
-        <v>0.01735202581679789</v>
+        <v>0.01791578244569192</v>
       </c>
       <c r="T18">
-        <v>0.0173520258167979</v>
+        <v>0.01791578244569192</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,13 +1582,13 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.3682003333333333</v>
+        <v>0.318005</v>
       </c>
       <c r="H19">
-        <v>1.104601</v>
+        <v>0.9540150000000001</v>
       </c>
       <c r="I19">
-        <v>0.05273065139862841</v>
+        <v>0.03737355625852081</v>
       </c>
       <c r="J19">
-        <v>0.05273065139862843</v>
+        <v>0.03737355625852082</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -1615,28 +1615,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.02921733333333333</v>
+        <v>0.018986</v>
       </c>
       <c r="N19">
-        <v>0.08765200000000001</v>
+        <v>0.05695799999999999</v>
       </c>
       <c r="O19">
-        <v>0.003299814657423431</v>
+        <v>0.003123681567871193</v>
       </c>
       <c r="P19">
-        <v>0.003299814657423431</v>
+        <v>0.003123681567871192</v>
       </c>
       <c r="Q19">
-        <v>0.01075783187244444</v>
+        <v>0.006037642930000001</v>
       </c>
       <c r="R19">
-        <v>0.09682048685200001</v>
+        <v>0.05433878637</v>
       </c>
       <c r="S19">
-        <v>0.0001740013763806794</v>
+        <v>0.0001167430888105385</v>
       </c>
       <c r="T19">
-        <v>0.0001740013763806794</v>
+        <v>0.0001167430888105385</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,13 +1644,13 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.3682003333333333</v>
+        <v>0.318005</v>
       </c>
       <c r="H20">
-        <v>1.104601</v>
+        <v>0.9540150000000001</v>
       </c>
       <c r="I20">
-        <v>0.05273065139862841</v>
+        <v>0.03737355625852081</v>
       </c>
       <c r="J20">
-        <v>0.05273065139862843</v>
+        <v>0.03737355625852082</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.466422333333333</v>
+        <v>0.9848966666666668</v>
       </c>
       <c r="N20">
-        <v>10.399267</v>
+        <v>2.95469</v>
       </c>
       <c r="O20">
-        <v>0.3914988097597292</v>
+        <v>0.1620406385718132</v>
       </c>
       <c r="P20">
-        <v>0.3914988097597293</v>
+        <v>0.1620406385718132</v>
       </c>
       <c r="Q20">
-        <v>1.276337858607444</v>
+        <v>0.3132020644833334</v>
       </c>
       <c r="R20">
-        <v>11.487040727467</v>
+        <v>2.81881858035</v>
       </c>
       <c r="S20">
-        <v>0.02064398726041822</v>
+        <v>0.006056034921830299</v>
       </c>
       <c r="T20">
-        <v>0.02064398726041823</v>
+        <v>0.006056034921830299</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,14 +1706,14 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
         <v>25</v>
       </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>23</v>
-      </c>
       <c r="E21">
         <v>3</v>
       </c>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.3682003333333333</v>
+        <v>0.318005</v>
       </c>
       <c r="H21">
-        <v>1.104601</v>
+        <v>0.9540150000000001</v>
       </c>
       <c r="I21">
-        <v>0.05273065139862841</v>
+        <v>0.03737355625852081</v>
       </c>
       <c r="J21">
-        <v>0.05273065139862843</v>
+        <v>0.03737355625852082</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1739,28 +1739,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.02851766666666667</v>
+        <v>0.003041</v>
       </c>
       <c r="N21">
-        <v>0.085553</v>
+        <v>0.009122999999999999</v>
       </c>
       <c r="O21">
-        <v>0.003220794087830817</v>
+        <v>0.0005003221135518961</v>
       </c>
       <c r="P21">
-        <v>0.003220794087830817</v>
+        <v>0.000500322113551896</v>
       </c>
       <c r="Q21">
-        <v>0.01050021437255555</v>
+        <v>0.0009670532050000001</v>
       </c>
       <c r="R21">
-        <v>0.094501929353</v>
+        <v>0.008703478844999999</v>
       </c>
       <c r="S21">
-        <v>0.0001698345702721702</v>
+        <v>1.869881665821382E-05</v>
       </c>
       <c r="T21">
-        <v>0.0001698345702721703</v>
+        <v>1.869881665821382E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,13 +1768,13 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E22">
         <v>2</v>
@@ -1783,16 +1783,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.4247756666666667</v>
+        <v>0.2193053333333333</v>
       </c>
       <c r="H22">
-        <v>1.274327</v>
+        <v>0.6579159999999999</v>
       </c>
       <c r="I22">
-        <v>0.06083290962515873</v>
+        <v>0.0257738721502083</v>
       </c>
       <c r="J22">
-        <v>0.06083290962515875</v>
+        <v>0.02577387215020831</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>2.416422666666667</v>
+        <v>2.157506</v>
       </c>
       <c r="N22">
-        <v>7.249268</v>
+        <v>6.472517999999999</v>
       </c>
       <c r="O22">
-        <v>0.2729115228630338</v>
+        <v>0.3549648016839517</v>
       </c>
       <c r="P22">
-        <v>0.2729115228630338</v>
+        <v>0.3549648016839516</v>
       </c>
       <c r="Q22">
-        <v>1.026437549181778</v>
+        <v>0.4731525724986666</v>
       </c>
       <c r="R22">
-        <v>9.237937942636002</v>
+        <v>4.258373152487999</v>
       </c>
       <c r="S22">
-        <v>0.01660200200599138</v>
+        <v>0.009148817416426215</v>
       </c>
       <c r="T22">
-        <v>0.01660200200599138</v>
+        <v>0.009148817416426215</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,13 +1830,13 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E23">
         <v>2</v>
@@ -1845,16 +1845,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.4247756666666667</v>
+        <v>0.2193053333333333</v>
       </c>
       <c r="H23">
-        <v>1.274327</v>
+        <v>0.6579159999999999</v>
       </c>
       <c r="I23">
-        <v>0.06083290962515873</v>
+        <v>0.0257738721502083</v>
       </c>
       <c r="J23">
-        <v>0.06083290962515875</v>
+        <v>0.02577387215020831</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1869,22 +1869,22 @@
         <v>8.740964</v>
       </c>
       <c r="O23">
-        <v>0.3290690586319825</v>
+        <v>0.4793705560628122</v>
       </c>
       <c r="P23">
-        <v>0.3290690586319827</v>
+        <v>0.4793705560628121</v>
       </c>
       <c r="Q23">
-        <v>1.237649603469778</v>
+        <v>0.6389800078915555</v>
       </c>
       <c r="R23">
-        <v>11.138846431228</v>
+        <v>5.750820071023999</v>
       </c>
       <c r="S23">
-        <v>0.02001822830419546</v>
+        <v>0.01235523542453718</v>
       </c>
       <c r="T23">
-        <v>0.02001822830419547</v>
+        <v>0.01235523542453718</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,13 +1892,13 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E24">
         <v>2</v>
@@ -1907,16 +1907,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.4247756666666667</v>
+        <v>0.2193053333333333</v>
       </c>
       <c r="H24">
-        <v>1.274327</v>
+        <v>0.6579159999999999</v>
       </c>
       <c r="I24">
-        <v>0.06083290962515873</v>
+        <v>0.0257738721502083</v>
       </c>
       <c r="J24">
-        <v>0.06083290962515875</v>
+        <v>0.02577387215020831</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -1925,28 +1925,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>0.02921733333333333</v>
+        <v>0.018986</v>
       </c>
       <c r="N24">
-        <v>0.08765200000000001</v>
+        <v>0.05695799999999999</v>
       </c>
       <c r="O24">
-        <v>0.003299814657423431</v>
+        <v>0.003123681567871193</v>
       </c>
       <c r="P24">
-        <v>0.003299814657423431</v>
+        <v>0.003123681567871192</v>
       </c>
       <c r="Q24">
-        <v>0.01241081224488889</v>
+        <v>0.004163731058666667</v>
       </c>
       <c r="R24">
-        <v>0.111697310204</v>
+        <v>0.03747357952799999</v>
       </c>
       <c r="S24">
-        <v>0.0002007373268348137</v>
+        <v>8.050936936827435E-05</v>
       </c>
       <c r="T24">
-        <v>0.0002007373268348138</v>
+        <v>8.050936936827435E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,13 +1954,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E25">
         <v>2</v>
@@ -1969,16 +1969,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.4247756666666667</v>
+        <v>0.2193053333333333</v>
       </c>
       <c r="H25">
-        <v>1.274327</v>
+        <v>0.6579159999999999</v>
       </c>
       <c r="I25">
-        <v>0.06083290962515873</v>
+        <v>0.0257738721502083</v>
       </c>
       <c r="J25">
-        <v>0.06083290962515875</v>
+        <v>0.02577387215020831</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>3.466422333333333</v>
+        <v>0.9848966666666668</v>
       </c>
       <c r="N25">
-        <v>10.399267</v>
+        <v>2.95469</v>
       </c>
       <c r="O25">
-        <v>0.3914988097597292</v>
+        <v>0.1620406385718132</v>
       </c>
       <c r="P25">
-        <v>0.3914988097597293</v>
+        <v>0.1620406385718132</v>
       </c>
       <c r="Q25">
-        <v>1.472451857589889</v>
+        <v>0.2159930917822222</v>
       </c>
       <c r="R25">
-        <v>13.252066718309</v>
+        <v>1.94393782604</v>
       </c>
       <c r="S25">
-        <v>0.02381601171247082</v>
+        <v>0.004176414701688026</v>
       </c>
       <c r="T25">
-        <v>0.02381601171247083</v>
+        <v>0.004176414701688026</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,13 +2016,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
         <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>23</v>
       </c>
       <c r="E26">
         <v>2</v>
@@ -2031,16 +2031,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.4247756666666667</v>
+        <v>0.2193053333333333</v>
       </c>
       <c r="H26">
-        <v>1.274327</v>
+        <v>0.6579159999999999</v>
       </c>
       <c r="I26">
-        <v>0.06083290962515873</v>
+        <v>0.0257738721502083</v>
       </c>
       <c r="J26">
-        <v>0.06083290962515875</v>
+        <v>0.02577387215020831</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -2049,28 +2049,338 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M26">
-        <v>0.02851766666666667</v>
+        <v>0.003041</v>
       </c>
       <c r="N26">
-        <v>0.085553</v>
+        <v>0.009122999999999999</v>
       </c>
       <c r="O26">
-        <v>0.003220794087830817</v>
+        <v>0.0005003221135518961</v>
       </c>
       <c r="P26">
-        <v>0.003220794087830817</v>
+        <v>0.000500322113551896</v>
       </c>
       <c r="Q26">
-        <v>0.01211361087011111</v>
+        <v>0.0006669075186666666</v>
       </c>
       <c r="R26">
-        <v>0.109022497831</v>
+        <v>0.006002167667999999</v>
       </c>
       <c r="S26">
-        <v>0.0001959302756662576</v>
+        <v>1.289523818860857E-05</v>
       </c>
       <c r="T26">
-        <v>0.0001959302756662577</v>
+        <v>1.289523818860857E-05</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.7241559999999999</v>
+      </c>
+      <c r="H27">
+        <v>2.172468</v>
+      </c>
+      <c r="I27">
+        <v>0.08510647633196142</v>
+      </c>
+      <c r="J27">
+        <v>0.08510647633196144</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>2.157506</v>
+      </c>
+      <c r="N27">
+        <v>6.472517999999999</v>
+      </c>
+      <c r="O27">
+        <v>0.3549648016839517</v>
+      </c>
+      <c r="P27">
+        <v>0.3549648016839516</v>
+      </c>
+      <c r="Q27">
+        <v>1.562370914936</v>
+      </c>
+      <c r="R27">
+        <v>14.061338234424</v>
+      </c>
+      <c r="S27">
+        <v>0.03020980349319461</v>
+      </c>
+      <c r="T27">
+        <v>0.03020980349319462</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.7241559999999999</v>
+      </c>
+      <c r="H28">
+        <v>2.172468</v>
+      </c>
+      <c r="I28">
+        <v>0.08510647633196142</v>
+      </c>
+      <c r="J28">
+        <v>0.08510647633196144</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>2.913654666666667</v>
+      </c>
+      <c r="N28">
+        <v>8.740964</v>
+      </c>
+      <c r="O28">
+        <v>0.4793705560628122</v>
+      </c>
+      <c r="P28">
+        <v>0.4793705560628121</v>
+      </c>
+      <c r="Q28">
+        <v>2.109940508794666</v>
+      </c>
+      <c r="R28">
+        <v>18.989464579152</v>
+      </c>
+      <c r="S28">
+        <v>0.04079753888379891</v>
+      </c>
+      <c r="T28">
+        <v>0.04079753888379892</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.7241559999999999</v>
+      </c>
+      <c r="H29">
+        <v>2.172468</v>
+      </c>
+      <c r="I29">
+        <v>0.08510647633196142</v>
+      </c>
+      <c r="J29">
+        <v>0.08510647633196144</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M29">
+        <v>0.018986</v>
+      </c>
+      <c r="N29">
+        <v>0.05695799999999999</v>
+      </c>
+      <c r="O29">
+        <v>0.003123681567871193</v>
+      </c>
+      <c r="P29">
+        <v>0.003123681567871192</v>
+      </c>
+      <c r="Q29">
+        <v>0.013748825816</v>
+      </c>
+      <c r="R29">
+        <v>0.123739432344</v>
+      </c>
+      <c r="S29">
+        <v>0.0002658455314246139</v>
+      </c>
+      <c r="T29">
+        <v>0.0002658455314246139</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.7241559999999999</v>
+      </c>
+      <c r="H30">
+        <v>2.172468</v>
+      </c>
+      <c r="I30">
+        <v>0.08510647633196142</v>
+      </c>
+      <c r="J30">
+        <v>0.08510647633196144</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0.9848966666666668</v>
+      </c>
+      <c r="N30">
+        <v>2.95469</v>
+      </c>
+      <c r="O30">
+        <v>0.1620406385718132</v>
+      </c>
+      <c r="P30">
+        <v>0.1620406385718132</v>
+      </c>
+      <c r="Q30">
+        <v>0.7132188305466667</v>
+      </c>
+      <c r="R30">
+        <v>6.41896947492</v>
+      </c>
+      <c r="S30">
+        <v>0.01379070777142794</v>
+      </c>
+      <c r="T30">
+        <v>0.01379070777142794</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.7241559999999999</v>
+      </c>
+      <c r="H31">
+        <v>2.172468</v>
+      </c>
+      <c r="I31">
+        <v>0.08510647633196142</v>
+      </c>
+      <c r="J31">
+        <v>0.08510647633196144</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M31">
+        <v>0.003041</v>
+      </c>
+      <c r="N31">
+        <v>0.009122999999999999</v>
+      </c>
+      <c r="O31">
+        <v>0.0005003221135518961</v>
+      </c>
+      <c r="P31">
+        <v>0.000500322113551896</v>
+      </c>
+      <c r="Q31">
+        <v>0.002202158396</v>
+      </c>
+      <c r="R31">
+        <v>0.019819425564</v>
+      </c>
+      <c r="S31">
+        <v>4.258065211536135E-05</v>
+      </c>
+      <c r="T31">
+        <v>4.258065211536136E-05</v>
       </c>
     </row>
   </sheetData>
